--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,43 +40,61 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>dangerous</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>crazy</t>
@@ -85,72 +103,48 @@
     <t>fuck</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -163,31 +157,37 @@
     <t>first</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>watch</t>
   </si>
   <si>
-    <t>media</t>
+    <t>…</t>
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -548,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +556,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>58</v>
@@ -620,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9519230769230769</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.92</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.7586206896551724</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,38 +867,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L8">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L8">
-        <v>12</v>
-      </c>
-      <c r="M8">
-        <v>12</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,10 +1020,10 @@
         <v>0.75</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.65</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,16 +1088,16 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.631578947368421</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1117,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6923076923076923</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>0.5555555555555556</v>
@@ -1167,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6875</v>
+        <v>0.7</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>0.4166666666666667</v>
@@ -1217,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6842105263157895</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1238,16 +1238,16 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L15">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6571428571428571</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="L16">
         <v>12</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L16">
-        <v>11</v>
-      </c>
       <c r="M16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6086956521739131</v>
+        <v>0.5625</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.2372881355932203</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1367,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5882352941176471</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.2185792349726776</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L18">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>858</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,13 +1417,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.574468085106383</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.1157894736842105</v>
+        <v>0.2358834244080146</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>84</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,37 +1467,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.55</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>11</v>
       </c>
-      <c r="D20">
+      <c r="J20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>0.1692307692307692</v>
+      </c>
+      <c r="L20">
         <v>11</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>9</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>0.0353356890459364</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
       <c r="M20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>273</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1517,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5357142857142857</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.03518518518518519</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>521</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1567,13 +1567,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5072463768115942</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C22">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.0275974025974026</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>599</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1617,13 +1617,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1635,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.02409638554216868</v>
+        <v>0.03148148148148148</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>648</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1667,13 +1667,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4166666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.01920614596670935</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>766</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1717,13 +1717,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.358974358974359</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1735,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.01382488479262673</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1712</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1767,13 +1767,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3214285714285715</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1785,7 +1785,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.01670506912442396</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1707</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1793,51 +1817,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1538461538461539</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="C27">
         <v>12</v>
       </c>
       <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>0.08</v>
+      </c>
+      <c r="F27">
+        <v>0.92</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>286</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27">
+        <v>0.01536491677336748</v>
+      </c>
+      <c r="L27">
         <v>12</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.04697986577181208</v>
-      </c>
-      <c r="C28">
-        <v>14</v>
-      </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F28">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>284</v>
+      <c r="M27">
+        <v>12</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>769</v>
       </c>
     </row>
   </sheetData>
